--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3009272.408862455</v>
+        <v>3007384.827346052</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>113.2788623889629</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>142.2665117930621</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231285</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586842</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>270.7773459850746</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385027</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.23994591341607</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056518</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>5.562624396424399</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>85.05437413388439</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>106.2835578420353</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>277.046582417032</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002166</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>155.5905547461171</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>58.42670163898961</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.87481874710124</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2582.725997696038</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2364.0913306681</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2110.329545306192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1779.266657962621</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1426.498002692507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7159451700466</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718023</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757142</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.54400078133</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5048,13 +5048,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5069,22 +5069,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>380.9740019042114</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>627.7391298106755</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262065</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.6108700904394</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6746871625326</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>385.6746871625325</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119729</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401274001</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904394</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904394</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.6108700904394</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5306,16 +5306,16 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555207</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>395.5481934947359</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>395.5481934947359</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952641</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>481.4617027208819</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>395.5481934947359</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765188</v>
+        <v>791.4353891154692</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706319</v>
+        <v>536.7509009095824</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="X19" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>564.1830073829219</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.308300601151</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952641</v>
+        <v>844.0280401273988</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>564.1830073829219</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>564.1830073829219</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>564.1830073829219</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609657</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550788</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318118</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201006</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2037.143944996364</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765192</v>
+        <v>898.792518248839</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429521</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429521</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163798</v>
+        <v>695.1010933248426</v>
       </c>
       <c r="C31" t="n">
-        <v>604.5641438163798</v>
+        <v>581.9257756783066</v>
       </c>
       <c r="D31" t="n">
-        <v>510.208369685415</v>
+        <v>487.5700015473418</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430012</v>
+        <v>395.4177732463196</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>304.2886910297801</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,10 +6640,10 @@
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096195</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818953</v>
+        <v>902.6804289818945</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652486</v>
+        <v>902.6804289818945</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652486</v>
+        <v>820.9886928737114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7105,7 +7105,7 @@
         <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.18649035013</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,55 +7169,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7360,7 +7360,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970491</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503156</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943505</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445214</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>230.7151863772029</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359244</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539324</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775531</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485193</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871082</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934473</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>120.1940167331531</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338537</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>192.3581855871789</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>133.5302792182104</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.264003216354</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338648</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.476415919558974</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271479</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>115.5623585656769</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>70.11910064292002</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.80400437902239</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>82.50657797643635</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803335</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524318</v>
+        <v>650915.4197524315</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.415891426</v>
       </c>
       <c r="M2" t="n">
         <v>656833.4158914271</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.415891427</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.467727502993135e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26445,19 +26445,19 @@
         <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275951</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627595</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002543</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172768.4996377498</v>
+        <v>-172768.4996377501</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767943</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="D6" t="n">
         <v>417199.3795767946</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466718317</v>
+        <v>-6643.995592690044</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101781</v>
+        <v>518516.040884206</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101779</v>
+        <v>518516.040884206</v>
       </c>
       <c r="H6" t="n">
-        <v>518613.5000101782</v>
+        <v>518516.040884206</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101784</v>
+        <v>518516.040884206</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175853</v>
+        <v>342092.821691613</v>
       </c>
       <c r="K6" t="n">
-        <v>476914.3137837276</v>
+        <v>476895.8200457931</v>
       </c>
       <c r="L6" t="n">
-        <v>511310.9464077757</v>
+        <v>511310.9464077741</v>
       </c>
       <c r="M6" t="n">
-        <v>386852.8379748049</v>
+        <v>386852.8379748048</v>
       </c>
       <c r="N6" t="n">
-        <v>521653.8532086418</v>
+        <v>521653.8532086413</v>
       </c>
       <c r="O6" t="n">
-        <v>521653.8532086422</v>
+        <v>521653.853208642</v>
       </c>
       <c r="P6" t="n">
-        <v>477491.2479057962</v>
+        <v>477491.2479057968</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.821402964180818e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26802,13 +26802,13 @@
         <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26820,13 +26820,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.084659378741419e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108345</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.084659378741419e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.13685042000864</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>6.348961225150276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858298</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>56.97491248506026</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.100481758799607e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.62609764791297e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.000973524382779e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.085788081099129e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>244.7129629076443</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980131</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586603</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>384.987089538255</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>138.6396521945092</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>437.8086013087276</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377838</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36209,16 +36209,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,19 +36285,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>254.3583680453836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>294.2627707717784</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412273</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043196</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37075,22 +37075,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>618.2977090519454</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37315,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>366.1170600557683</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405096</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750475</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813865</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
